--- a/REGULAR/CITY MARKET/ANGCAYA, MARLON.xlsx
+++ b/REGULAR/CITY MARKET/ANGCAYA, MARLON.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CITY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CITY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55339C3A-EDAA-47B3-ACA1-8CDDDA848B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -775,12 +774,48 @@
   </si>
   <si>
     <t>DOMESTIC 3/9/2021</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>UT(0-1-41)</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>5/30,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-44)</t>
+  </si>
+  <si>
+    <t>4/4,6,7,8/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>UT(0-2-26)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1469,7 +1504,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1486,25 +1521,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K380" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K385" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1811,34 +1846,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K380"/>
+  <dimension ref="A2:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1008" topLeftCell="A357" activePane="bottomLeft"/>
+      <pane ySplit="1005" topLeftCell="A312" activePane="bottomLeft"/>
       <selection activeCell="J9" sqref="J9"/>
-      <selection pane="bottomLeft" activeCell="D372" sqref="D372:E372"/>
+      <selection pane="bottomLeft" activeCell="K326" sqref="K326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1894,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1912,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +1932,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1905,7 +1940,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1918,7 +1953,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1935,7 +1970,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +2005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1979,7 +2014,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.348999999999959</v>
+        <v>4.7990000000000048</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1989,12 +2024,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>143.417</v>
+        <v>147.167</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>85</v>
       </c>
@@ -2016,7 +2051,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>37599</v>
       </c>
@@ -2036,7 +2071,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>86</v>
       </c>
@@ -2054,7 +2089,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>37622</v>
       </c>
@@ -2074,7 +2109,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>37653</v>
       </c>
@@ -2094,7 +2129,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>37681</v>
       </c>
@@ -2114,7 +2149,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>37712</v>
       </c>
@@ -2134,7 +2169,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>37742</v>
       </c>
@@ -2154,7 +2189,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>37773</v>
       </c>
@@ -2174,7 +2209,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>37803</v>
       </c>
@@ -2194,7 +2229,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>37834</v>
       </c>
@@ -2214,7 +2249,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>37865</v>
       </c>
@@ -2234,7 +2269,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>37895</v>
       </c>
@@ -2254,7 +2289,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>37926</v>
       </c>
@@ -2274,7 +2309,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>37956</v>
       </c>
@@ -2298,7 +2333,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>87</v>
       </c>
@@ -2313,7 +2348,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>37987</v>
       </c>
@@ -2333,7 +2368,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>38018</v>
       </c>
@@ -2353,7 +2388,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>38047</v>
       </c>
@@ -2373,7 +2408,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>38078</v>
       </c>
@@ -2393,7 +2428,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>38108</v>
       </c>
@@ -2413,7 +2448,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>38139</v>
       </c>
@@ -2433,7 +2468,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>38169</v>
       </c>
@@ -2453,7 +2488,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>38200</v>
       </c>
@@ -2473,7 +2508,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>38231</v>
       </c>
@@ -2493,7 +2528,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>38261</v>
       </c>
@@ -2513,7 +2548,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>38292</v>
       </c>
@@ -2533,7 +2568,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>38322</v>
       </c>
@@ -2557,7 +2592,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>88</v>
       </c>
@@ -2572,7 +2607,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>38353</v>
       </c>
@@ -2592,7 +2627,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>38384</v>
       </c>
@@ -2612,7 +2647,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>38412</v>
       </c>
@@ -2632,7 +2667,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>38443</v>
       </c>
@@ -2652,7 +2687,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>38473</v>
       </c>
@@ -2672,7 +2707,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>38504</v>
       </c>
@@ -2692,7 +2727,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>38534</v>
       </c>
@@ -2712,7 +2747,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>38565</v>
       </c>
@@ -2732,7 +2767,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>38596</v>
       </c>
@@ -2752,7 +2787,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>38626</v>
       </c>
@@ -2772,7 +2807,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>38657</v>
       </c>
@@ -2796,7 +2831,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>38687</v>
       </c>
@@ -2816,7 +2851,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>89</v>
       </c>
@@ -2831,7 +2866,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>38718</v>
       </c>
@@ -2851,7 +2886,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>38749</v>
       </c>
@@ -2871,7 +2906,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>38777</v>
       </c>
@@ -2891,7 +2926,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>38808</v>
       </c>
@@ -2911,7 +2946,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>38838</v>
       </c>
@@ -2931,7 +2966,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>38869</v>
       </c>
@@ -2951,7 +2986,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>38899</v>
       </c>
@@ -2971,7 +3006,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>38930</v>
       </c>
@@ -2995,7 +3030,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>38961</v>
       </c>
@@ -3019,7 +3054,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>38991</v>
       </c>
@@ -3045,7 +3080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>94</v>
@@ -3064,7 +3099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>94</v>
@@ -3083,7 +3118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>94</v>
@@ -3102,7 +3137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>39022</v>
       </c>
@@ -3126,7 +3161,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>39052</v>
       </c>
@@ -3146,7 +3181,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>99</v>
       </c>
@@ -3161,7 +3196,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>39083</v>
       </c>
@@ -3185,7 +3220,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>39114</v>
       </c>
@@ -3209,7 +3244,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>39142</v>
       </c>
@@ -3233,7 +3268,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>39173</v>
       </c>
@@ -3257,7 +3292,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>39203</v>
       </c>
@@ -3281,7 +3316,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>39234</v>
       </c>
@@ -3305,7 +3340,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>107</v>
@@ -3322,7 +3357,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>39264</v>
       </c>
@@ -3346,7 +3381,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>39295</v>
       </c>
@@ -3370,7 +3405,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>39326</v>
       </c>
@@ -3390,7 +3425,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>39356</v>
       </c>
@@ -3410,7 +3445,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>39387</v>
       </c>
@@ -3436,7 +3471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>94</v>
@@ -3455,7 +3490,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -3474,7 +3509,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>94</v>
@@ -3493,7 +3528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>39417</v>
       </c>
@@ -3513,7 +3548,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>115</v>
       </c>
@@ -3528,7 +3563,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>39448</v>
       </c>
@@ -3554,7 +3589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>39479</v>
       </c>
@@ -3574,7 +3609,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>39508</v>
       </c>
@@ -3598,7 +3633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -3620,7 +3655,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>39539</v>
       </c>
@@ -3640,7 +3675,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>39569</v>
       </c>
@@ -3666,7 +3701,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>39600</v>
       </c>
@@ -3686,7 +3721,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>39630</v>
       </c>
@@ -3706,7 +3741,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>39661</v>
       </c>
@@ -3726,7 +3761,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>39692</v>
       </c>
@@ -3752,7 +3787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>39722</v>
       </c>
@@ -3772,7 +3807,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>39753</v>
       </c>
@@ -3796,7 +3831,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>39783</v>
       </c>
@@ -3820,7 +3855,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>123</v>
       </c>
@@ -3835,7 +3870,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>39814</v>
       </c>
@@ -3859,7 +3894,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>125</v>
@@ -3876,7 +3911,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>39845</v>
       </c>
@@ -3900,7 +3935,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>39873</v>
       </c>
@@ -3924,7 +3959,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>39904</v>
       </c>
@@ -3948,7 +3983,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>39934</v>
       </c>
@@ -3972,7 +4007,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>39965</v>
       </c>
@@ -3996,7 +4031,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>39995</v>
       </c>
@@ -4020,7 +4055,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>40026</v>
       </c>
@@ -4046,7 +4081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>133</v>
@@ -4066,7 +4101,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>40057</v>
       </c>
@@ -4092,7 +4127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>135</v>
@@ -4112,7 +4147,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>40087</v>
       </c>
@@ -4138,7 +4173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>137</v>
@@ -4158,7 +4193,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>40118</v>
       </c>
@@ -4184,7 +4219,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>140</v>
@@ -4201,7 +4236,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>40148</v>
       </c>
@@ -4225,7 +4260,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>141</v>
       </c>
@@ -4243,7 +4278,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>40179</v>
       </c>
@@ -4267,7 +4302,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>40210</v>
       </c>
@@ -4291,7 +4326,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>40238</v>
       </c>
@@ -4311,7 +4346,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>40269</v>
       </c>
@@ -4335,7 +4370,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>40299</v>
       </c>
@@ -4359,7 +4394,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>40330</v>
       </c>
@@ -4383,7 +4418,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>40360</v>
       </c>
@@ -4405,7 +4440,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>147</v>
@@ -4422,7 +4457,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>40391</v>
       </c>
@@ -4442,7 +4477,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>40422</v>
       </c>
@@ -4468,7 +4503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>47</v>
@@ -4485,7 +4520,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>69</v>
@@ -4504,7 +4539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>149</v>
@@ -4521,7 +4556,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>40452</v>
       </c>
@@ -4545,7 +4580,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>40483</v>
       </c>
@@ -4569,7 +4604,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>40513</v>
       </c>
@@ -4593,7 +4628,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>155</v>
       </c>
@@ -4608,7 +4643,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>40544</v>
       </c>
@@ -4632,7 +4667,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>40575</v>
       </c>
@@ -4656,7 +4691,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>40603</v>
       </c>
@@ -4680,7 +4715,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>40634</v>
       </c>
@@ -4700,7 +4735,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>40664</v>
       </c>
@@ -4724,7 +4759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>160</v>
@@ -4744,7 +4779,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>40695</v>
       </c>
@@ -4768,7 +4803,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>40725</v>
       </c>
@@ -4794,7 +4829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>40756</v>
       </c>
@@ -4818,7 +4853,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>40787</v>
       </c>
@@ -4838,7 +4873,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>40817</v>
       </c>
@@ -4864,7 +4899,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>40848</v>
       </c>
@@ -4890,7 +4925,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>40878</v>
       </c>
@@ -4916,7 +4951,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -4935,7 +4970,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>165</v>
@@ -4952,7 +4987,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>167</v>
       </c>
@@ -4970,7 +5005,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>40909</v>
       </c>
@@ -4996,7 +5031,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>45</v>
@@ -5018,7 +5053,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>40940</v>
       </c>
@@ -5038,7 +5073,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>40969</v>
       </c>
@@ -5058,7 +5093,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>41000</v>
       </c>
@@ -5084,7 +5119,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>41030</v>
       </c>
@@ -5110,7 +5145,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>47</v>
@@ -5127,7 +5162,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>45</v>
@@ -5146,7 +5181,7 @@
         <v>41065</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>41061</v>
       </c>
@@ -5166,7 +5201,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>41091</v>
       </c>
@@ -5192,7 +5227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>41122</v>
       </c>
@@ -5212,7 +5247,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>41153</v>
       </c>
@@ -5232,7 +5267,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>41183</v>
       </c>
@@ -5252,7 +5287,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>41214</v>
       </c>
@@ -5278,7 +5313,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>41244</v>
       </c>
@@ -5298,7 +5333,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>172</v>
       </c>
@@ -5316,7 +5351,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>41275</v>
       </c>
@@ -5340,7 +5375,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>41306</v>
       </c>
@@ -5364,7 +5399,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>41334</v>
       </c>
@@ -5388,7 +5423,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>41365</v>
       </c>
@@ -5408,7 +5443,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>41395</v>
       </c>
@@ -5428,7 +5463,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>41426</v>
       </c>
@@ -5452,7 +5487,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>41456</v>
       </c>
@@ -5476,7 +5511,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>41487</v>
       </c>
@@ -5500,7 +5535,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>41518</v>
       </c>
@@ -5524,7 +5559,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>41548</v>
       </c>
@@ -5548,7 +5583,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>41579</v>
       </c>
@@ -5574,7 +5609,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>182</v>
@@ -5594,7 +5629,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>41609</v>
       </c>
@@ -5620,7 +5655,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>183</v>
@@ -5640,7 +5675,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>184</v>
       </c>
@@ -5658,7 +5693,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>41640</v>
       </c>
@@ -5684,7 +5719,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>190</v>
@@ -5708,7 +5743,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>188</v>
@@ -5728,7 +5763,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>192</v>
@@ -5748,7 +5783,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="51"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>41671</v>
       </c>
@@ -5774,7 +5809,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>196</v>
@@ -5794,7 +5829,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>41699</v>
       </c>
@@ -5820,7 +5855,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>198</v>
@@ -5840,7 +5875,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>41730</v>
       </c>
@@ -5866,7 +5901,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>199</v>
@@ -5886,7 +5921,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="49"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>41760</v>
       </c>
@@ -5914,7 +5949,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>47</v>
@@ -5934,7 +5969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>202</v>
@@ -5954,7 +5989,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>41791</v>
       </c>
@@ -5974,7 +6009,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>41821</v>
       </c>
@@ -5994,7 +6029,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>41852</v>
       </c>
@@ -6014,7 +6049,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>41883</v>
       </c>
@@ -6040,7 +6075,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>205</v>
@@ -6057,7 +6092,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>41913</v>
       </c>
@@ -6081,7 +6116,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>41944</v>
       </c>
@@ -6105,7 +6140,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>41974</v>
       </c>
@@ -6129,7 +6164,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="48" t="s">
         <v>209</v>
       </c>
@@ -6147,7 +6182,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>42005</v>
       </c>
@@ -6173,7 +6208,7 @@
         <v>42027</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>210</v>
@@ -6195,7 +6230,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>212</v>
@@ -6215,7 +6250,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>42036</v>
       </c>
@@ -6239,7 +6274,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>42064</v>
       </c>
@@ -6263,7 +6298,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>42095</v>
       </c>
@@ -6287,7 +6322,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>42125</v>
       </c>
@@ -6311,7 +6346,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>42156</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>217</v>
@@ -6357,7 +6392,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>42186</v>
       </c>
@@ -6381,7 +6416,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>42217</v>
       </c>
@@ -6405,7 +6440,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>42248</v>
       </c>
@@ -6429,7 +6464,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>42278</v>
       </c>
@@ -6453,7 +6488,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>42309</v>
       </c>
@@ -6477,7 +6512,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>42339</v>
       </c>
@@ -6501,7 +6536,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="48" t="s">
         <v>225</v>
       </c>
@@ -6516,7 +6551,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>42370</v>
       </c>
@@ -6540,7 +6575,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>42401</v>
       </c>
@@ -6564,7 +6599,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>42430</v>
       </c>
@@ -6588,7 +6623,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>42461</v>
       </c>
@@ -6612,7 +6647,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>42491</v>
       </c>
@@ -6636,7 +6671,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>42522</v>
       </c>
@@ -6662,7 +6697,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>232</v>
@@ -6682,7 +6717,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>42552</v>
       </c>
@@ -6706,7 +6741,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>42583</v>
       </c>
@@ -6730,7 +6765,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>42614</v>
       </c>
@@ -6754,7 +6789,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>42644</v>
       </c>
@@ -6778,7 +6813,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>42675</v>
       </c>
@@ -6802,7 +6837,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>42705</v>
       </c>
@@ -6826,7 +6861,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>238</v>
       </c>
@@ -6844,7 +6879,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>42736</v>
       </c>
@@ -6868,7 +6903,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>42767</v>
       </c>
@@ -6888,7 +6923,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>42795</v>
       </c>
@@ -6908,7 +6943,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>42826</v>
       </c>
@@ -6928,7 +6963,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>42856</v>
       </c>
@@ -6952,7 +6987,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>42887</v>
       </c>
@@ -6972,7 +7007,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>42917</v>
       </c>
@@ -6998,7 +7033,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>42948</v>
       </c>
@@ -7018,7 +7053,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>42979</v>
       </c>
@@ -7044,7 +7079,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>45</v>
@@ -7063,7 +7098,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>43009</v>
       </c>
@@ -7089,7 +7124,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>43040</v>
       </c>
@@ -7115,7 +7150,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>45</v>
@@ -7137,7 +7172,7 @@
         <v>43087</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>43070</v>
       </c>
@@ -7157,7 +7192,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="48" t="s">
         <v>44</v>
       </c>
@@ -7175,7 +7210,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>43101</v>
       </c>
@@ -7201,7 +7236,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>46</v>
@@ -7220,7 +7255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>47</v>
@@ -7237,7 +7272,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>43132</v>
       </c>
@@ -7257,7 +7292,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>43160</v>
       </c>
@@ -7283,7 +7318,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>43191</v>
       </c>
@@ -7309,7 +7344,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>43221</v>
       </c>
@@ -7335,7 +7370,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>43252</v>
       </c>
@@ -7361,7 +7396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>45</v>
@@ -7380,7 +7415,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>45</v>
@@ -7399,7 +7434,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>43282</v>
       </c>
@@ -7419,7 +7454,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>43313</v>
       </c>
@@ -7439,7 +7474,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>43344</v>
       </c>
@@ -7459,7 +7494,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>43374</v>
       </c>
@@ -7485,7 +7520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>43405</v>
       </c>
@@ -7511,7 +7546,7 @@
         <v>43421</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43435</v>
       </c>
@@ -7537,7 +7572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>54</v>
       </c>
@@ -7555,7 +7590,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>43466</v>
       </c>
@@ -7575,7 +7610,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>43497</v>
       </c>
@@ -7599,7 +7634,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>43525</v>
       </c>
@@ -7625,7 +7660,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -7644,7 +7679,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>43556</v>
       </c>
@@ -7664,7 +7699,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>43586</v>
       </c>
@@ -7690,7 +7725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>43617</v>
       </c>
@@ -7710,7 +7745,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43647</v>
       </c>
@@ -7730,7 +7765,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>43678</v>
       </c>
@@ -7750,7 +7785,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43709</v>
       </c>
@@ -7776,7 +7811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43739</v>
       </c>
@@ -7802,7 +7837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43770</v>
       </c>
@@ -7822,7 +7857,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43800</v>
       </c>
@@ -7842,7 +7877,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>60</v>
       </c>
@@ -7860,7 +7895,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43831</v>
       </c>
@@ -7886,7 +7921,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43862</v>
       </c>
@@ -7910,7 +7945,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>62</v>
@@ -7927,7 +7962,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>50</v>
@@ -7946,7 +7981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43891</v>
       </c>
@@ -7972,7 +8007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43922</v>
       </c>
@@ -7992,7 +8027,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43952</v>
       </c>
@@ -8012,7 +8047,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43983</v>
       </c>
@@ -8032,7 +8067,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44013</v>
       </c>
@@ -8052,7 +8087,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>44044</v>
       </c>
@@ -8072,7 +8107,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>44075</v>
       </c>
@@ -8092,7 +8127,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>44105</v>
       </c>
@@ -8112,7 +8147,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44136</v>
       </c>
@@ -8132,7 +8167,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44166</v>
       </c>
@@ -8152,7 +8187,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>65</v>
       </c>
@@ -8170,7 +8205,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>44197</v>
       </c>
@@ -8196,7 +8231,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>44228</v>
       </c>
@@ -8216,7 +8251,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>44256</v>
       </c>
@@ -8240,7 +8275,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>44287</v>
       </c>
@@ -8260,7 +8295,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>44317</v>
       </c>
@@ -8280,7 +8315,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>44348</v>
       </c>
@@ -8300,7 +8335,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>44378</v>
       </c>
@@ -8320,7 +8355,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>44409</v>
       </c>
@@ -8340,7 +8375,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44440</v>
       </c>
@@ -8360,7 +8395,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>44470</v>
       </c>
@@ -8380,7 +8415,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>44501</v>
       </c>
@@ -8400,7 +8435,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>44531</v>
       </c>
@@ -8426,7 +8461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>68</v>
       </c>
@@ -8444,7 +8479,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>44562</v>
       </c>
@@ -8464,7 +8499,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>44593</v>
       </c>
@@ -8484,7 +8519,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>44621</v>
       </c>
@@ -8504,7 +8539,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>44652</v>
       </c>
@@ -8530,7 +8565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>84</v>
@@ -8550,7 +8585,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>44682</v>
       </c>
@@ -8576,7 +8611,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>81</v>
@@ -8596,7 +8631,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="49"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>44713</v>
       </c>
@@ -8620,7 +8655,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>44743</v>
       </c>
@@ -8646,7 +8681,7 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>79</v>
@@ -8666,7 +8701,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="49"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44774</v>
       </c>
@@ -8692,7 +8727,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44805</v>
       </c>
@@ -8718,7 +8753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>78</v>
@@ -8738,7 +8773,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44835</v>
       </c>
@@ -8762,7 +8797,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44866</v>
       </c>
@@ -8788,7 +8823,7 @@
         <v>44884</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>74</v>
@@ -8808,7 +8843,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="49"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44896</v>
       </c>
@@ -8834,7 +8869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>72</v>
@@ -8854,7 +8889,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>71</v>
       </c>
@@ -8872,15 +8907,19 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44957</v>
       </c>
-      <c r="B326" s="20"/>
+      <c r="B326" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C326" s="13">
         <v>1.25</v>
       </c>
-      <c r="D326" s="39"/>
+      <c r="D326" s="39">
+        <v>1</v>
+      </c>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
       <c r="G326" s="13">
@@ -8890,17 +8929,23 @@
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="20"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K326" s="49">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44985</v>
       </c>
-      <c r="B327" s="20"/>
+      <c r="B327" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="C327" s="13">
         <v>1.25</v>
       </c>
-      <c r="D327" s="39"/>
+      <c r="D327" s="39">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="E327" s="9"/>
       <c r="F327" s="20"/>
       <c r="G327" s="13">
@@ -8912,15 +8957,19 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>45016</v>
       </c>
-      <c r="B328" s="20"/>
+      <c r="B328" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="C328" s="13">
         <v>1.25</v>
       </c>
-      <c r="D328" s="39"/>
+      <c r="D328" s="39">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
       <c r="G328" s="13">
@@ -8932,15 +8981,19 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>45046</v>
       </c>
-      <c r="B329" s="20"/>
+      <c r="B329" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C329" s="13">
         <v>1.25</v>
       </c>
-      <c r="D329" s="39"/>
+      <c r="D329" s="39">
+        <v>4</v>
+      </c>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
       <c r="G329" s="13">
@@ -8950,79 +9003,83 @@
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="20"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B330" s="20"/>
-      <c r="C330" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D330" s="39"/>
+      <c r="K329" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="40"/>
+      <c r="B330" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C330" s="13"/>
+      <c r="D330" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
       </c>
-      <c r="D331" s="39"/>
+      <c r="D331" s="39">
+        <v>2</v>
+      </c>
       <c r="E331" s="9"/>
       <c r="F331" s="20"/>
       <c r="G331" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H331" s="39">
-        <v>1</v>
-      </c>
+      <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="49">
-        <v>45083</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B332" s="20"/>
-      <c r="C332" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D332" s="39"/>
+      <c r="K331" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="40"/>
+      <c r="B332" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C332" s="13"/>
+      <c r="D332" s="39">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B333" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C333" s="13">
         <v>1.25</v>
       </c>
@@ -9033,38 +9090,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H333" s="39"/>
+      <c r="H333" s="39">
+        <v>1</v>
+      </c>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B334" s="20"/>
-      <c r="C334" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D334" s="39"/>
+      <c r="K333" s="49">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="40"/>
+      <c r="B334" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C334" s="13"/>
+      <c r="D334" s="39">
+        <v>1</v>
+      </c>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
-      <c r="K334" s="20"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B335" s="20"/>
+      <c r="K334" s="49">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="40"/>
+      <c r="B335" s="20" t="s">
+        <v>252</v>
+      </c>
       <c r="C335" s="13"/>
-      <c r="D335" s="39"/>
+      <c r="D335" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
       <c r="G335" s="13" t="str">
@@ -9074,106 +9139,152 @@
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
-      <c r="K335" s="20"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="40"/>
-      <c r="B336" s="20"/>
-      <c r="C336" s="13"/>
-      <c r="D336" s="39"/>
+      <c r="K335" s="49"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B336" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D336" s="39">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="40"/>
-      <c r="B337" s="20"/>
-      <c r="C337" s="13"/>
-      <c r="D337" s="39"/>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D337" s="39">
+        <v>0.21000000000000002</v>
+      </c>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="40"/>
-      <c r="B338" s="20"/>
-      <c r="C338" s="13"/>
-      <c r="D338" s="39"/>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="40">
+        <v>45199</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D338" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E338" s="9"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H338" s="39"/>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="40"/>
-      <c r="B339" s="20"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="39"/>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D339" s="39">
+        <v>0.12100000000000001</v>
+      </c>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="40"/>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="40">
+        <v>45260</v>
+      </c>
       <c r="B340" s="20"/>
-      <c r="C340" s="13"/>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D340" s="39"/>
       <c r="E340" s="9"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H340" s="39"/>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="40"/>
-      <c r="B341" s="20"/>
-      <c r="C341" s="13"/>
-      <c r="D341" s="39"/>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D341" s="39">
+        <v>0.34799999999999998</v>
+      </c>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="40"/>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="48" t="s">
+        <v>247</v>
+      </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -9188,8 +9299,10 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="40"/>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
+        <v>45322</v>
+      </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -9204,8 +9317,10 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="40"/>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
+        <v>45351</v>
+      </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -9220,8 +9335,10 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="40"/>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
+        <v>45382</v>
+      </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -9236,8 +9353,10 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="40"/>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
+        <v>45412</v>
+      </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -9252,8 +9371,10 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="40"/>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
+        <v>45443</v>
+      </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
@@ -9268,7 +9389,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -9284,7 +9405,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -9300,7 +9421,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -9316,7 +9437,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -9332,7 +9453,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -9348,7 +9469,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9364,7 +9485,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -9380,7 +9501,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -9396,7 +9517,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -9412,7 +9533,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -9428,7 +9549,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -9444,7 +9565,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -9460,7 +9581,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -9476,7 +9597,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -9492,7 +9613,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -9508,7 +9629,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -9524,7 +9645,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -9540,7 +9661,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -9556,7 +9677,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -9572,7 +9693,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -9588,7 +9709,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9604,7 +9725,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9620,7 +9741,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9636,7 +9757,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -9652,7 +9773,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -9668,7 +9789,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -9684,7 +9805,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -9700,7 +9821,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9716,7 +9837,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9732,7 +9853,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9748,7 +9869,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -9764,7 +9885,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9780,21 +9901,101 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380" s="41"/>
-      <c r="B380" s="15"/>
-      <c r="C380" s="42"/>
-      <c r="D380" s="43"/>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="40"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39"/>
       <c r="E380" s="9"/>
-      <c r="F380" s="15"/>
-      <c r="G380" s="42" t="str">
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H380" s="43"/>
+      <c r="H380" s="39"/>
       <c r="I380" s="9"/>
-      <c r="J380" s="12"/>
-      <c r="K380" s="15"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="40"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="40"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="40"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="40"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="41"/>
+      <c r="B385" s="15"/>
+      <c r="C385" s="42"/>
+      <c r="D385" s="43"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="43"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9811,10 +10012,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9837,28 +10038,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9871,7 +10072,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9900,25 +10101,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.91700000000000004</v>
       </c>
       <c r="B3" s="11">
         <v>0.91700000000000004</v>
       </c>
-      <c r="D3" s="11">
-        <v>4</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.1920000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="J3" s="47">
         <v>4</v>
@@ -9932,17 +10131,17 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9963,7 +10162,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9990,7 +10189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10016,7 +10215,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10042,7 +10241,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10068,7 +10267,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10094,7 +10293,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10120,7 +10319,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10146,7 +10345,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10172,7 +10371,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10192,7 +10391,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10212,7 +10411,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10232,7 +10431,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10253,7 +10452,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10274,7 +10473,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10295,7 +10494,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10316,7 +10515,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10337,7 +10536,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10358,7 +10557,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10379,7 +10578,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10400,7 +10599,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10421,7 +10620,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10442,7 +10641,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10463,7 +10662,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10484,7 +10683,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10505,7 +10704,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10526,7 +10725,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10547,7 +10746,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10568,7 +10767,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10589,7 +10788,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10610,7 +10809,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10631,7 +10830,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10652,7 +10851,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10661,7 +10860,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10670,7 +10869,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10679,7 +10878,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10688,7 +10887,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10697,7 +10896,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10706,7 +10905,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10715,7 +10914,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10724,7 +10923,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10733,7 +10932,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10742,7 +10941,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10751,7 +10950,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10760,7 +10959,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10769,7 +10968,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10778,7 +10977,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10787,7 +10986,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10796,7 +10995,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10805,7 +11004,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10814,7 +11013,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10823,7 +11022,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10832,7 +11031,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10841,7 +11040,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10850,7 +11049,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10859,7 +11058,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10868,7 +11067,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10877,7 +11076,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10886,7 +11085,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10895,7 +11094,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10904,7 +11103,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10913,7 +11112,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
